--- a/Rodriguez Roman Marisol 20212.xlsx
+++ b/Rodriguez Roman Marisol 20212.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="684">
   <si>
     <t>NC</t>
   </si>
@@ -721,6 +721,9 @@
     <t>IXTLA</t>
   </si>
   <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
@@ -769,12 +772,12 @@
     <t>EDGAR DANIEL</t>
   </si>
   <si>
+    <t>JESUS</t>
+  </si>
+  <si>
     <t>EVELYN</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>ANGEL ALDAHIR</t>
   </si>
   <si>
@@ -829,6 +832,9 @@
     <t>danycraft111@gmail.com</t>
   </si>
   <si>
+    <t>jesushernandezsarmiento108@gmail.com</t>
+  </si>
+  <si>
     <t>evelynldj@gmail.com</t>
   </si>
   <si>
@@ -898,6 +904,9 @@
     <t>2721859278</t>
   </si>
   <si>
+    <t>2722146369</t>
+  </si>
+  <si>
     <t>2721972074</t>
   </si>
   <si>
@@ -995,6 +1004,9 @@
   </si>
   <si>
     <t>FRANCISCO JAVIER HERNANDEZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>JORGE HERNÁNDEZ ATLAHUA</t>
   </si>
   <si>
     <t>MALDONADO LÓPEZ TETLA</t>
@@ -2886,7 +2898,7 @@
         <v>116</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3385,7 +3397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3446,22 +3458,22 @@
         <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="I2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3478,22 +3490,22 @@
         <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3510,25 +3522,25 @@
         <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I4" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -3545,25 +3557,25 @@
         <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I5" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J5" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3580,25 +3592,25 @@
         <v>229</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="I6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3615,25 +3627,25 @@
         <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="H7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="I7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -3650,22 +3662,22 @@
         <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J8" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3682,22 +3694,22 @@
         <v>232</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I9" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J9" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -3714,25 +3726,25 @@
         <v>233</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H10" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I10" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="J10" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -3749,19 +3761,19 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G11" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H11" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3769,133 +3781,133 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920347</v>
+        <v>20330051920346</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>295</v>
+      </c>
+      <c r="G12" t="s">
+        <v>295</v>
       </c>
       <c r="H12" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I12" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="J12" t="s">
-        <v>366</v>
+        <v>295</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920348</v>
+        <v>20330051920347</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>235</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F13" t="s">
-        <v>294</v>
-      </c>
-      <c r="G13" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="H13" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="I13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J13" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>20330051920349</v>
+        <v>20330051920348</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
         <v>236</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F14" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="G14" t="s">
+        <v>313</v>
       </c>
       <c r="H14" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="I14" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="J14" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920350</v>
+        <v>20330051920349</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
         <v>253</v>
       </c>
       <c r="E15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F15" t="s">
-        <v>296</v>
-      </c>
-      <c r="G15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H15" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="I15" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="J15" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3903,139 +3915,139 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920352</v>
+        <v>20330051920350</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>254</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G16" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H16" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="I16" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="J16" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920353</v>
+        <v>20330051920352</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>255</v>
       </c>
       <c r="E17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H17" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="I17" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="J17" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>20330051920354</v>
+        <v>20330051920353</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>256</v>
       </c>
       <c r="E18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F18" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G18" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="H18" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I18" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J18" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920355</v>
+        <v>20330051920354</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="D19" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G19" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="H19" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I19" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J19" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -4043,98 +4055,101 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920382</v>
+        <v>20330051920355</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G20" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="H20" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I20" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J20" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330050470596</v>
+        <v>20330051920382</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="G21" t="s">
+        <v>304</v>
       </c>
       <c r="H21" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I21" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J21" t="s">
-        <v>302</v>
+        <v>377</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>20330051920356</v>
+        <v>19330050470596</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>258</v>
       </c>
       <c r="E22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H22" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I22" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J22" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -4142,71 +4157,103 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>20330051920357</v>
+        <v>20330051920356</v>
       </c>
       <c r="B23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
         <v>239</v>
       </c>
       <c r="D23" t="s">
-        <v>258</v>
+        <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F23" t="s">
-        <v>304</v>
-      </c>
-      <c r="G23" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="H23" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="I23" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J23" t="s">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>20330051920383</v>
+        <v>20330051920357</v>
       </c>
       <c r="B24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
         <v>259</v>
       </c>
       <c r="E24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G24" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="I24" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="J24" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>20330051920383</v>
+      </c>
+      <c r="B25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" t="s">
+        <v>342</v>
+      </c>
+      <c r="I25" t="s">
+        <v>362</v>
+      </c>
+      <c r="J25" t="s">
+        <v>379</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
     </row>
@@ -4272,28 +4319,28 @@
         <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s">
         <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="G2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="J2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -4304,31 +4351,31 @@
         <v>19330051920430</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F3" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H3" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="I3" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J3" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4339,31 +4386,31 @@
         <v>19330051920225</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
         <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E4" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H4" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="I4" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="J4" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4374,28 +4421,31 @@
         <v>19330051920226</v>
       </c>
       <c r="B5" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C5" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E5" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F5" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H5" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="I5" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="J5" t="s">
-        <v>534</v>
+        <v>538</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4403,31 +4453,31 @@
         <v>19330051920227</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F6" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G6" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H6" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="I6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J6" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4438,31 +4488,31 @@
         <v>19330051920229</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="I7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="J7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -4473,31 +4523,31 @@
         <v>19330051920230</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E8" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H8" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="I8" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="J8" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -4508,31 +4558,31 @@
         <v>19330051920231</v>
       </c>
       <c r="B9" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D9" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F9" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G9" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H9" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="I9" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4543,31 +4593,31 @@
         <v>19330051920232</v>
       </c>
       <c r="B10" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C10" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D10" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E10" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G10" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H10" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I10" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J10" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4578,31 +4628,31 @@
         <v>19330051920233</v>
       </c>
       <c r="B11" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C11" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D11" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E11" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F11" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G11" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H11" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="I11" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="J11" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4613,31 +4663,31 @@
         <v>19330051920234</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C12" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D12" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E12" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F12" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G12" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H12" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I12" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J12" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4651,25 +4701,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D13" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E13" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F13" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="G13" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H13" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="J13" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4680,31 +4730,31 @@
         <v>19330051920235</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F14" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G14" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H14" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="I14" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="J14" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4715,28 +4765,28 @@
         <v>19330051920236</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E15" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F15" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H15" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="I15" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="J15" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4747,31 +4797,31 @@
         <v>19330051920237</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C16" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D16" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E16" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F16" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G16" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H16" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I16" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="J16" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -4782,31 +4832,31 @@
         <v>19330051920228</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C17" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D17" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F17" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G17" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H17" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I17" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="J17" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -4820,28 +4870,28 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F18" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="H18" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="I18" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="J18" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4852,28 +4902,28 @@
         <v>19330051920404</v>
       </c>
       <c r="B19" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C19" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D19" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E19" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F19" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H19" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="I19" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="J19" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4884,31 +4934,31 @@
         <v>19330051920240</v>
       </c>
       <c r="B20" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C20" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D20" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E20" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F20" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G20" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H20" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="I20" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="J20" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -4922,28 +4972,28 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D21" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E21" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F21" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G21" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H21" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="I21" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J21" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -4960,25 +5010,25 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E22" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F22" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G22" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H22" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I22" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J22" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -4989,28 +5039,28 @@
         <v>19330051920243</v>
       </c>
       <c r="B23" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E23" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F23" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H23" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="I23" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="J23" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -5021,28 +5071,28 @@
         <v>19330051920244</v>
       </c>
       <c r="B24" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E24" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F24" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G24" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H24" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="J24" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -5056,25 +5106,25 @@
         <v>222</v>
       </c>
       <c r="C25" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D25" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E25" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F25" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H25" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="I25" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="J25" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -5145,28 +5195,28 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D2" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="F2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="G2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="I2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="J2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -5177,28 +5227,28 @@
         <v>21330051920138</v>
       </c>
       <c r="B3" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C3" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E3" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="H3" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="I3" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="J3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5212,22 +5262,22 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D4" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E4" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="G4" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="H4" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="J4" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -5238,31 +5288,31 @@
         <v>21330051920140</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="E5" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F5" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G5" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="H5" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="I5" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="J5" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -5276,25 +5326,25 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D6" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E6" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F6" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="H6" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="I6" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="J6" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5308,28 +5358,28 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="G7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="I7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="J7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -5343,25 +5393,25 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D8" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E8" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F8" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="H8" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="I8" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="J8" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -5375,28 +5425,28 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D9" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="E9" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F9" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G9" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H9" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="I9" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="J9" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -5407,28 +5457,28 @@
         <v>21330051920381</v>
       </c>
       <c r="B10" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C10" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D10" t="s">
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F10" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="G10" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="H10" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="J10" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -5439,28 +5489,28 @@
         <v>21330051920145</v>
       </c>
       <c r="B11" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E11" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F11" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H11" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I11" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="J11" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5474,28 +5524,28 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D12" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="E12" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="F12" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="G12" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H12" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="I12" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="J12" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -5506,28 +5556,31 @@
         <v>21330051920395</v>
       </c>
       <c r="B13" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C13" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D13" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E13" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="F13" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="H13" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="I13" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="J13" t="s">
-        <v>674</v>
+        <v>678</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5538,25 +5591,25 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D14" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E14" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F14" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="H14" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="I14" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="J14" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -5570,25 +5623,25 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D15" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="E15" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F15" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G15" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="H15" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J15" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -5605,22 +5658,22 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E16" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F16" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H16" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="I16" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="J16" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -5637,22 +5690,22 @@
         <v>213</v>
       </c>
       <c r="D17" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="E17" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H17" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="I17" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="J17" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -5663,28 +5716,28 @@
         <v>21330051920382</v>
       </c>
       <c r="B18" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E18" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F18" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H18" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="I18" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="J18" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -5695,31 +5748,31 @@
         <v>21330051920392</v>
       </c>
       <c r="B19" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="E19" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F19" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="G19" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H19" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="I19" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="J19" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -5730,28 +5783,28 @@
         <v>18330051920388</v>
       </c>
       <c r="B20" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E20" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F20" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="H20" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="I20" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="J20" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="K20">
         <v>0</v>

--- a/Rodriguez Roman Marisol 20212.xlsx
+++ b/Rodriguez Roman Marisol 20212.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="678">
   <si>
     <t>NC</t>
   </si>
@@ -199,9 +199,6 @@
     <t>ALEXANDER</t>
   </si>
   <si>
-    <t>NATALIE</t>
-  </si>
-  <si>
     <t>DARLET VICTORIA</t>
   </si>
   <si>
@@ -280,9 +277,6 @@
     <t>garaydelgado80@gmail.com</t>
   </si>
   <si>
-    <t>natigap48@gmail.com</t>
-  </si>
-  <si>
     <t>darletvictoriagarciarodriguez@gmail.com</t>
   </si>
   <si>
@@ -361,9 +355,6 @@
     <t>2721200463</t>
   </si>
   <si>
-    <t>2722018659</t>
-  </si>
-  <si>
     <t>2727212047</t>
   </si>
   <si>
@@ -433,9 +424,6 @@
     <t>2721060576</t>
   </si>
   <si>
-    <t>2721443309</t>
-  </si>
-  <si>
     <t>2711036218</t>
   </si>
   <si>
@@ -490,9 +478,6 @@
     <t>JACQUELIN DELGADO POLITO</t>
   </si>
   <si>
-    <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
-  </si>
-  <si>
     <t>RUTH BAUTISTA APARICIO</t>
   </si>
   <si>
@@ -611,9 +596,6 @@
   </si>
   <si>
     <t>2727839804</t>
-  </si>
-  <si>
-    <t>2721349831</t>
   </si>
   <si>
     <t>2711036278</t>
@@ -2426,7 +2408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2490,19 +2472,19 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -2522,19 +2504,19 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2554,16 +2536,16 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -2583,19 +2565,19 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -2615,19 +2597,19 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -2647,22 +2629,22 @@
         <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -2682,22 +2664,22 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -2717,22 +2699,22 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2752,22 +2734,22 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -2775,31 +2757,28 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>21330051920120</v>
+        <v>21330051920340</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -2807,28 +2786,31 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>21330051920340</v>
+        <v>21330051920341</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
         <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -2836,31 +2818,34 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>21330051920341</v>
+        <v>21330051920342</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="I13" t="s">
+        <v>176</v>
       </c>
       <c r="J13" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -2868,95 +2853,92 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>21330051920342</v>
+        <v>21330051920343</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>21330051920343</v>
+        <v>21330051920344</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="I15" t="s">
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>21330051920344</v>
+        <v>21330051920345</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2964,31 +2946,31 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>21330051920345</v>
+        <v>21330051920346</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2996,63 +2978,66 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>21330051920346</v>
+        <v>21330051920347</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>21330051920347</v>
+        <v>21330051920348</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="G19" t="s">
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -3060,34 +3045,31 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920348</v>
+        <v>21330051920349</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -3095,95 +3077,98 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920349</v>
+        <v>21330051920350</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
         <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920350</v>
+        <v>21330051920149</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="G22" t="s">
+        <v>139</v>
       </c>
       <c r="H22" t="s">
-        <v>168</v>
-      </c>
-      <c r="I22" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920149</v>
+        <v>21330051920351</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -3191,63 +3176,63 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>21330051920351</v>
+        <v>21330051920322</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H24" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920322</v>
+        <v>21330051920174</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H25" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="I25" t="s">
+        <v>100</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -3255,138 +3240,103 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>21330051920174</v>
+        <v>21330051920352</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="J26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920352</v>
+        <v>21330051920353</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I27" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>21330051920353</v>
+        <v>21330051920354</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" t="s">
         <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I28" t="s">
-        <v>189</v>
+        <v>103</v>
       </c>
       <c r="J28" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="K28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>21330051920354</v>
-      </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29" t="s">
-        <v>105</v>
-      </c>
-      <c r="J29" t="s">
-        <v>207</v>
-      </c>
-      <c r="K29">
         <v>1</v>
       </c>
     </row>
@@ -3452,28 +3402,28 @@
         <v>20330051920336</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -3484,28 +3434,28 @@
         <v>20330051920337</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="I3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3516,31 +3466,31 @@
         <v>20330051920263</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="J4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -3551,31 +3501,31 @@
         <v>20330051920339</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="I5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3586,31 +3536,31 @@
         <v>20330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3621,31 +3571,31 @@
         <v>20330051920341</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="J7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -3656,28 +3606,28 @@
         <v>20330051920342</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H8" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J8" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3691,25 +3641,25 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="J9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -3723,28 +3673,28 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I10" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="J10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -3761,19 +3711,19 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -3787,28 +3737,28 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H12" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J12" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -3822,25 +3772,25 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E13" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F13" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="I13" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="J13" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -3851,31 +3801,31 @@
         <v>20330051920348</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F14" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G14" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H14" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I14" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J14" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -3886,28 +3836,28 @@
         <v>20330051920349</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F15" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H15" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="I15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J15" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3918,31 +3868,31 @@
         <v>20330051920350</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G16" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H16" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I16" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="J16" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -3959,25 +3909,25 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F17" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G17" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H17" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="I17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J17" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -3988,31 +3938,31 @@
         <v>20330051920353</v>
       </c>
       <c r="B18" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F18" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G18" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H18" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="I18" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="J18" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4023,31 +3973,31 @@
         <v>20330051920354</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F19" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G19" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="I19" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J19" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -4058,31 +4008,31 @@
         <v>20330051920355</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E20" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F20" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G20" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H20" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="I20" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J20" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -4093,31 +4043,31 @@
         <v>20330051920382</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F21" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G21" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H21" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I21" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J21" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -4128,28 +4078,28 @@
         <v>19330050470596</v>
       </c>
       <c r="B22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F22" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="I22" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="J22" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -4160,28 +4110,28 @@
         <v>20330051920356</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F23" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H23" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="I23" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J23" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -4192,31 +4142,31 @@
         <v>20330051920357</v>
       </c>
       <c r="B24" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D24" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E24" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F24" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G24" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H24" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I24" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="J24" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -4227,31 +4177,31 @@
         <v>20330051920383</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E25" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G25" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H25" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I25" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="J25" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -4319,28 +4269,28 @@
         <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="E2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="J2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -4351,31 +4301,31 @@
         <v>19330051920430</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D3" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H3" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="I3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="J3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4386,31 +4336,31 @@
         <v>19330051920225</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F4" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G4" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H4" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="I4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="J4" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4421,28 +4371,28 @@
         <v>19330051920226</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F5" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="I5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="J5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -4453,31 +4403,31 @@
         <v>19330051920227</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E6" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G6" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="I6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J6" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4488,31 +4438,31 @@
         <v>19330051920229</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="H7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="I7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="J7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -4523,31 +4473,31 @@
         <v>19330051920230</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C8" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D8" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F8" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G8" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H8" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="I8" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="J8" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -4558,31 +4508,31 @@
         <v>19330051920231</v>
       </c>
       <c r="B9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F9" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G9" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H9" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I9" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="J9" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4593,31 +4543,31 @@
         <v>19330051920232</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="H10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="I10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="J10" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4628,31 +4578,31 @@
         <v>19330051920233</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C11" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E11" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F11" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H11" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="I11" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="J11" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -4663,31 +4613,31 @@
         <v>19330051920234</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E12" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F12" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G12" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="H12" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="I12" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="J12" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4701,25 +4651,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F13" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G13" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H13" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="J13" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4730,31 +4680,31 @@
         <v>19330051920235</v>
       </c>
       <c r="B14" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E14" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F14" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G14" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H14" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="I14" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="J14" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4765,28 +4715,28 @@
         <v>19330051920236</v>
       </c>
       <c r="B15" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E15" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F15" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H15" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="I15" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J15" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4797,31 +4747,31 @@
         <v>19330051920237</v>
       </c>
       <c r="B16" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C16" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D16" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F16" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G16" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="H16" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="I16" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="J16" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -4832,31 +4782,31 @@
         <v>19330051920228</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C17" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D17" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E17" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F17" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G17" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H17" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I17" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="J17" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -4870,28 +4820,28 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F18" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G18" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H18" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="I18" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="J18" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -4902,28 +4852,28 @@
         <v>19330051920404</v>
       </c>
       <c r="B19" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C19" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D19" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E19" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F19" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H19" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="I19" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="J19" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -4934,31 +4884,31 @@
         <v>19330051920240</v>
       </c>
       <c r="B20" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C20" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E20" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F20" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G20" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H20" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="I20" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="J20" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -4972,28 +4922,28 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D21" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E21" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F21" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G21" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H21" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="I21" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="J21" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -5010,25 +4960,25 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E22" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F22" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G22" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H22" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="I22" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="J22" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -5039,28 +4989,28 @@
         <v>19330051920243</v>
       </c>
       <c r="B23" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E23" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F23" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H23" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I23" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="J23" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -5071,28 +5021,28 @@
         <v>19330051920244</v>
       </c>
       <c r="B24" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E24" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F24" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G24" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H24" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J24" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -5103,28 +5053,28 @@
         <v>19330051920245</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D25" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E25" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F25" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H25" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="I25" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="J25" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -5195,28 +5145,28 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="G2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="H2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="I2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="J2" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -5227,28 +5177,28 @@
         <v>21330051920138</v>
       </c>
       <c r="B3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D3" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F3" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="H3" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="I3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="J3" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -5262,22 +5212,22 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D4" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E4" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G4" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H4" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="J4" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -5288,31 +5238,31 @@
         <v>21330051920140</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E5" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F5" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="G5" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H5" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="I5" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="J5" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -5326,25 +5276,25 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D6" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="E6" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F6" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="H6" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I6" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="J6" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5358,28 +5308,28 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="H7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="I7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="J7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -5393,25 +5343,25 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D8" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E8" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F8" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="H8" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="I8" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="J8" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -5425,28 +5375,28 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D9" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="E9" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F9" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G9" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H9" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="I9" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="J9" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -5457,28 +5407,28 @@
         <v>21330051920381</v>
       </c>
       <c r="B10" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C10" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="F10" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G10" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="H10" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="J10" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -5489,28 +5439,28 @@
         <v>21330051920145</v>
       </c>
       <c r="B11" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E11" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F11" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="H11" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="I11" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="J11" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5524,28 +5474,28 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D12" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E12" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G12" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="H12" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="I12" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="J12" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -5556,28 +5506,28 @@
         <v>21330051920395</v>
       </c>
       <c r="B13" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C13" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D13" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E13" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F13" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="H13" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="I13" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="J13" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -5591,25 +5541,25 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D14" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E14" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F14" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="H14" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="I14" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="J14" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -5623,25 +5573,25 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D15" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E15" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F15" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="G15" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="H15" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="J15" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -5658,22 +5608,22 @@
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E16" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F16" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="H16" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="I16" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="J16" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -5687,25 +5637,25 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E17" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F17" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H17" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="I17" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="J17" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -5716,28 +5666,28 @@
         <v>21330051920382</v>
       </c>
       <c r="B18" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E18" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F18" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="H18" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="I18" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J18" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -5748,31 +5698,31 @@
         <v>21330051920392</v>
       </c>
       <c r="B19" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E19" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F19" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="G19" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="H19" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="I19" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="J19" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -5783,28 +5733,28 @@
         <v>18330051920388</v>
       </c>
       <c r="B20" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E20" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F20" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="H20" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="I20" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="J20" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="K20">
         <v>0</v>

--- a/Rodriguez Roman Marisol 20212.xlsx
+++ b/Rodriguez Roman Marisol 20212.xlsx
@@ -2717,7 +2717,7 @@
         <v>191</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3726,7 +3726,7 @@
         <v>322</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
